--- a/data/output/FV2304_FV2210/INVOIC/31004.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="329">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="329">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1142,6 +1142,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U198" totalsRowShown="0">
+  <autoFilter ref="A1:U198"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1431,7 +1461,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10214,5 +10247,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31004.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4573" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="511">
   <si>
     <t>#</t>
   </si>
@@ -8683,48 +8683,46 @@
       <c r="V140" s="11"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M141" s="5" t="s">
+      <c r="K141" s="2"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N141" s="5" t="s">
+      <c r="N141" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O141" s="5" t="s">
+      <c r="O141" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -8750,9 +8748,7 @@
         <v>283</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>42</v>
       </c>
@@ -8802,9 +8798,7 @@
       <c r="K143" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L143" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>42</v>
       </c>
@@ -8831,46 +8825,44 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K144" s="5" t="s">
+      <c r="K144" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L144" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M144" s="5" t="s">
+      <c r="L144" s="4"/>
+      <c r="M144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N144" s="5" t="s">
+      <c r="N144" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5" t="s">
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="V144" s="5" t="s">
+      <c r="V144" s="2" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8896,9 +8888,7 @@
         <v>256</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>43</v>
       </c>
@@ -8942,9 +8932,7 @@
         <v>286</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>43</v>
       </c>
@@ -8992,9 +8980,7 @@
         <v>257</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>43</v>
       </c>
@@ -9019,44 +9005,42 @@
       <c r="V147" s="5"/>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5" t="s">
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M148" s="5" t="s">
+      <c r="K148" s="2"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="N148" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5" t="s">
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V148" s="5"/>
+      <c r="V148" s="2"/>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="5" t="s">
@@ -9080,9 +9064,7 @@
         <v>256</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>44</v>
       </c>
@@ -9130,9 +9112,7 @@
         <v>257</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>44</v>
       </c>
@@ -9186,9 +9166,7 @@
         <v>257</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>44</v>
       </c>
@@ -9242,9 +9220,7 @@
         <v>257</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>44</v>
       </c>
@@ -9271,44 +9247,42 @@
       <c r="V152" s="5"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5" t="s">
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M153" s="5" t="s">
+      <c r="K153" s="2"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="N153" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5" t="s">
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V153" s="5"/>
+      <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -9332,9 +9306,7 @@
         <v>256</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>45</v>
       </c>
@@ -9378,9 +9350,7 @@
         <v>287</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>45</v>
       </c>
@@ -9403,48 +9373,46 @@
       <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5" t="s">
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M156" s="5" t="s">
+      <c r="K156" s="2"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N156" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O156" s="5" t="s">
+      <c r="O156" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5" t="s">
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V156" s="5"/>
+      <c r="V156" s="2"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="5" t="s">
@@ -9474,9 +9442,7 @@
         <v>257</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>46</v>
       </c>
@@ -9528,9 +9494,7 @@
         <v>288</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>46</v>
       </c>
@@ -9582,9 +9546,7 @@
         <v>257</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>46</v>
       </c>
@@ -9611,44 +9573,42 @@
       <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5" t="s">
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M160" s="5" t="s">
+      <c r="K160" s="2"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5" t="s">
+      <c r="N160" s="2"/>
+      <c r="O160" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V160" s="5"/>
+      <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -9674,9 +9634,7 @@
         <v>289</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>47</v>
       </c>
@@ -9699,44 +9657,42 @@
       <c r="V161" s="5"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5" t="s">
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M162" s="5" t="s">
+      <c r="K162" s="2"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N162" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5" t="s">
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V162" s="5"/>
+      <c r="V162" s="2"/>
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="5" t="s">
@@ -9760,9 +9716,7 @@
         <v>256</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>48</v>
       </c>
@@ -9810,9 +9764,7 @@
         <v>257</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>48</v>
       </c>
@@ -9866,9 +9818,7 @@
       <c r="K165" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>48</v>
       </c>
@@ -9895,46 +9845,44 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K166" s="5" t="s">
+      <c r="K166" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L166" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M166" s="5" t="s">
+      <c r="L166" s="4"/>
+      <c r="M166" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="V166" s="5" t="s">
+      <c r="V166" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9960,9 +9908,7 @@
         <v>256</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>49</v>
       </c>
@@ -10010,9 +9956,7 @@
         <v>257</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>49</v>
       </c>
@@ -10066,9 +10010,7 @@
       <c r="K169" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L169" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>49</v>
       </c>
@@ -10095,46 +10037,44 @@
       </c>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K170" s="5" t="s">
+      <c r="K170" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L170" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M170" s="5" t="s">
+      <c r="L170" s="4"/>
+      <c r="M170" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="V170" s="5" t="s">
+      <c r="V170" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -10160,9 +10100,7 @@
         <v>256</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>50</v>
       </c>
@@ -10210,9 +10148,7 @@
         <v>257</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>50</v>
       </c>
@@ -10266,9 +10202,7 @@
       <c r="K173" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L173" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>50</v>
       </c>
@@ -10295,44 +10229,42 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5" t="s">
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M174" s="5" t="s">
+      <c r="K174" s="2"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N174" s="5" t="s">
+      <c r="N174" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
-      <c r="U174" s="5" t="s">
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V174" s="5"/>
+      <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="5" t="s">
@@ -10356,9 +10288,7 @@
         <v>256</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>51</v>
       </c>
@@ -10406,9 +10336,7 @@
         <v>257</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>51</v>
       </c>
@@ -10462,9 +10390,7 @@
       <c r="K177" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L177" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>51</v>
       </c>
@@ -10491,44 +10417,42 @@
       </c>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5" t="s">
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M178" s="5" t="s">
+      <c r="K178" s="2"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N178" s="5" t="s">
+      <c r="N178" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O178" s="5"/>
-      <c r="P178" s="5"/>
-      <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-      <c r="U178" s="5" t="s">
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V178" s="5"/>
+      <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="5" t="s">
@@ -10552,9 +10476,7 @@
         <v>256</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>52</v>
       </c>
@@ -10598,9 +10520,7 @@
         <v>292</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>52</v>
       </c>
@@ -10650,9 +10570,7 @@
         <v>257</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>52</v>
       </c>
@@ -10706,9 +10624,7 @@
       <c r="K182" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L182" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>52</v>
       </c>
@@ -10760,9 +10676,7 @@
         <v>294</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>52</v>
       </c>
@@ -10787,50 +10701,48 @@
       <c r="V183" s="5"/>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5" t="s">
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K184" s="5" t="s">
+      <c r="K184" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L184" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M184" s="5" t="s">
+      <c r="L184" s="4"/>
+      <c r="M184" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N184" s="5" t="s">
+      <c r="N184" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O184" s="5" t="s">
+      <c r="O184" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P184" s="5"/>
-      <c r="Q184" s="5"/>
-      <c r="R184" s="5"/>
-      <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
-      <c r="U184" s="5" t="s">
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="V184" s="5" t="s">
+      <c r="V184" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -10862,9 +10774,7 @@
         <v>257</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>53</v>
       </c>
@@ -10918,9 +10828,7 @@
       <c r="K186" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L186" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>53</v>
       </c>
@@ -11022,9 +10930,7 @@
         <v>257</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>54</v>
       </c>
@@ -11078,9 +10984,7 @@
       <c r="K189" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L189" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>54</v>
       </c>
@@ -11107,48 +11011,46 @@
       </c>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5" t="s">
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M190" s="5" t="s">
+      <c r="K190" s="2"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N190" s="5" t="s">
+      <c r="N190" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O190" s="5" t="s">
+      <c r="O190" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P190" s="5"/>
-      <c r="Q190" s="5"/>
-      <c r="R190" s="5"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
-      <c r="U190" s="5" t="s">
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+      <c r="U190" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V190" s="5"/>
+      <c r="V190" s="2"/>
     </row>
     <row r="191" spans="1:22">
       <c r="A191" s="5" t="s">
@@ -11178,9 +11080,7 @@
         <v>257</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>55</v>
       </c>
@@ -11234,9 +11134,7 @@
       <c r="K192" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L192" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L192" s="4"/>
       <c r="M192" s="5" t="s">
         <v>55</v>
       </c>
@@ -11263,48 +11161,46 @@
       </c>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5" t="s">
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M193" s="5" t="s">
+      <c r="K193" s="2"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N193" s="5" t="s">
+      <c r="N193" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O193" s="5" t="s">
+      <c r="O193" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5" t="s">
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V193" s="5"/>
+      <c r="V193" s="2"/>
     </row>
     <row r="194" spans="1:22">
       <c r="A194" s="5" t="s">
@@ -11334,9 +11230,7 @@
         <v>257</v>
       </c>
       <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>56</v>
       </c>
@@ -11390,9 +11284,7 @@
       <c r="K195" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L195" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L195" s="4"/>
       <c r="M195" s="5" t="s">
         <v>56</v>
       </c>
@@ -11419,44 +11311,42 @@
       </c>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5" t="s">
+      <c r="C196" s="2"/>
+      <c r="D196" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5" t="s">
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M196" s="5" t="s">
+      <c r="K196" s="2"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N196" s="5"/>
-      <c r="O196" s="5" t="s">
+      <c r="N196" s="2"/>
+      <c r="O196" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="5"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-      <c r="U196" s="5" t="s">
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="V196" s="5"/>
+      <c r="V196" s="2"/>
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="5" t="s">
@@ -11482,9 +11372,7 @@
         <v>257</v>
       </c>
       <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L197" s="4"/>
       <c r="M197" s="5" t="s">
         <v>57</v>
       </c>
@@ -11530,9 +11418,7 @@
         <v>257</v>
       </c>
       <c r="K198" s="5"/>
-      <c r="L198" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>57</v>
       </c>

--- a/data/output/FV2304_FV2210/INVOIC/31004.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31004.xlsx
@@ -1672,7 +1672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1695,6 +1695,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1703,6 +1706,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2143,7 +2149,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2479,7 +2485,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2705,7 +2711,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2893,7 +2899,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3083,7 +3089,7 @@
         <v>296</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3271,7 +3277,7 @@
         <v>296</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3459,7 +3465,7 @@
         <v>297</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3647,7 +3653,7 @@
         <v>297</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3835,7 +3841,7 @@
         <v>298</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -4079,7 +4085,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2"/>
@@ -4877,7 +4883,7 @@
         <v>302</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2"/>
@@ -5009,7 +5015,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5197,7 +5203,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5389,7 +5395,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5591,7 +5597,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6281,20 +6287,20 @@
       <c r="B88" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8" t="s">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M88" s="5"/>
@@ -6312,25 +6318,25 @@
       <c r="A89" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M89" s="5"/>
@@ -6348,31 +6354,31 @@
       <c r="A90" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8" t="s">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8" t="s">
+      <c r="H90" s="9"/>
+      <c r="I90" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="J90" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M90" s="5"/>
@@ -6390,33 +6396,33 @@
       <c r="A91" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8" t="s">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K91" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="L91" s="9" t="s">
+      <c r="L91" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M91" s="5"/>
@@ -6434,29 +6440,29 @@
       <c r="A92" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M92" s="5"/>
@@ -6484,25 +6490,25 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M93" s="11" t="s">
+      <c r="M93" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="N93" s="11" t="s">
+      <c r="N93" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11" t="s">
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="V93" s="11"/>
+      <c r="V93" s="13"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6518,27 +6524,27 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N94" s="11" t="s">
+      <c r="N94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11" t="s">
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="V94" s="11"/>
+      <c r="V94" s="13"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -6554,33 +6560,33 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P95" s="11" t="s">
+      <c r="P95" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11" t="s">
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11" t="s">
+      <c r="S95" s="13"/>
+      <c r="T95" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="U95" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="V95" s="11"/>
+      <c r="U95" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="V95" s="13"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -6596,33 +6602,33 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P96" s="11" t="s">
+      <c r="P96" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11" t="s">
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11" t="s">
+      <c r="S96" s="13"/>
+      <c r="T96" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U96" s="11" t="s">
+      <c r="U96" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="V96" s="11" t="s">
+      <c r="V96" s="13" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6640,31 +6646,31 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P97" s="11" t="s">
+      <c r="P97" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11" t="s">
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="U97" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="V97" s="11"/>
+      <c r="U97" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="V97" s="13"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="2" t="s">
@@ -6687,7 +6693,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6865,7 +6871,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7225,7 +7231,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7911,22 +7917,22 @@
       <c r="B123" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8" t="s">
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K123" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="L123" s="9" t="s">
+      <c r="L123" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M123" s="5"/>
@@ -7944,25 +7950,25 @@
       <c r="A124" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8" t="s">
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K124" s="8"/>
-      <c r="L124" s="9" t="s">
+      <c r="K124" s="9"/>
+      <c r="L124" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M124" s="5"/>
@@ -7980,31 +7986,31 @@
       <c r="A125" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8" t="s">
+      <c r="F125" s="9"/>
+      <c r="G125" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8" t="s">
+      <c r="H125" s="9"/>
+      <c r="I125" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J125" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K125" s="8"/>
-      <c r="L125" s="9" t="s">
+      <c r="J125" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K125" s="9"/>
+      <c r="L125" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M125" s="5"/>
@@ -8022,33 +8028,33 @@
       <c r="A126" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8" t="s">
+      <c r="F126" s="9"/>
+      <c r="G126" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8" t="s">
+      <c r="H126" s="9"/>
+      <c r="I126" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J126" s="8" t="s">
+      <c r="J126" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K126" s="8" t="s">
+      <c r="K126" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="L126" s="9" t="s">
+      <c r="L126" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M126" s="5"/>
@@ -8066,29 +8072,29 @@
       <c r="A127" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8" t="s">
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J127" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K127" s="8"/>
-      <c r="L127" s="9" t="s">
+      <c r="J127" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K127" s="9"/>
+      <c r="L127" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M127" s="5"/>
@@ -8116,25 +8122,25 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
-      <c r="L128" s="10" t="s">
+      <c r="L128" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M128" s="11" t="s">
+      <c r="M128" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="N128" s="11" t="s">
+      <c r="N128" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O128" s="11"/>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11"/>
-      <c r="R128" s="11"/>
-      <c r="S128" s="11"/>
-      <c r="T128" s="11"/>
-      <c r="U128" s="11" t="s">
+      <c r="O128" s="13"/>
+      <c r="P128" s="13"/>
+      <c r="Q128" s="13"/>
+      <c r="R128" s="13"/>
+      <c r="S128" s="13"/>
+      <c r="T128" s="13"/>
+      <c r="U128" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="V128" s="11" t="s">
+      <c r="V128" s="13" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8152,27 +8158,27 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
-      <c r="L129" s="10" t="s">
+      <c r="L129" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M129" s="11" t="s">
+      <c r="M129" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N129" s="11" t="s">
+      <c r="N129" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O129" s="11" t="s">
+      <c r="O129" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11"/>
-      <c r="R129" s="11"/>
-      <c r="S129" s="11"/>
-      <c r="T129" s="11"/>
-      <c r="U129" s="11" t="s">
+      <c r="P129" s="13"/>
+      <c r="Q129" s="13"/>
+      <c r="R129" s="13"/>
+      <c r="S129" s="13"/>
+      <c r="T129" s="13"/>
+      <c r="U129" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="V129" s="11"/>
+      <c r="V129" s="13"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="5" t="s">
@@ -8188,33 +8194,33 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
-      <c r="L130" s="10" t="s">
+      <c r="L130" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M130" s="11" t="s">
+      <c r="M130" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N130" s="11" t="s">
+      <c r="N130" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O130" s="11" t="s">
+      <c r="O130" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P130" s="11" t="s">
+      <c r="P130" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q130" s="11"/>
-      <c r="R130" s="11" t="s">
+      <c r="Q130" s="13"/>
+      <c r="R130" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="S130" s="11"/>
-      <c r="T130" s="11" t="s">
+      <c r="S130" s="13"/>
+      <c r="T130" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="U130" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="V130" s="11"/>
+      <c r="U130" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="V130" s="13"/>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="5" t="s">
@@ -8230,33 +8236,33 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
-      <c r="L131" s="10" t="s">
+      <c r="L131" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M131" s="11" t="s">
+      <c r="M131" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N131" s="11" t="s">
+      <c r="N131" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O131" s="11" t="s">
+      <c r="O131" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P131" s="11" t="s">
+      <c r="P131" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="11" t="s">
+      <c r="Q131" s="13"/>
+      <c r="R131" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="S131" s="11"/>
-      <c r="T131" s="11" t="s">
+      <c r="S131" s="13"/>
+      <c r="T131" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U131" s="11" t="s">
+      <c r="U131" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="V131" s="11" t="s">
+      <c r="V131" s="13" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8274,31 +8280,31 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
-      <c r="L132" s="10" t="s">
+      <c r="L132" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M132" s="11" t="s">
+      <c r="M132" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N132" s="11" t="s">
+      <c r="N132" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O132" s="11" t="s">
+      <c r="O132" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P132" s="11" t="s">
+      <c r="P132" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q132" s="11"/>
-      <c r="R132" s="11"/>
-      <c r="S132" s="11"/>
-      <c r="T132" s="11" t="s">
+      <c r="Q132" s="13"/>
+      <c r="R132" s="13"/>
+      <c r="S132" s="13"/>
+      <c r="T132" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="U132" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="V132" s="11"/>
+      <c r="U132" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="V132" s="13"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="2" t="s">
@@ -8323,7 +8329,7 @@
         <v>307</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8656,31 +8662,31 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
-      <c r="L140" s="10" t="s">
+      <c r="L140" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="M140" s="11" t="s">
+      <c r="M140" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N140" s="11" t="s">
+      <c r="N140" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O140" s="11" t="s">
+      <c r="O140" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P140" s="11" t="s">
+      <c r="P140" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q140" s="11"/>
-      <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
-      <c r="T140" s="11" t="s">
+      <c r="Q140" s="13"/>
+      <c r="R140" s="13"/>
+      <c r="S140" s="13"/>
+      <c r="T140" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U140" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="V140" s="11"/>
+      <c r="U140" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="V140" s="13"/>
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="2" t="s">
@@ -8705,7 +8711,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8847,7 +8853,7 @@
         <v>310</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9025,7 +9031,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9267,7 +9273,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9395,7 +9401,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9593,7 +9599,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N160" s="2"/>
@@ -9677,7 +9683,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -9867,7 +9873,7 @@
         <v>312</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10059,7 +10065,7 @@
         <v>312</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10249,7 +10255,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10437,7 +10443,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -10725,7 +10731,7 @@
         <v>312</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -10855,23 +10861,23 @@
       </c>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
       <c r="J187" s="6" t="s">
         <v>291</v>
       </c>
@@ -10881,20 +10887,20 @@
       <c r="L187" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M187" s="5" t="s">
+      <c r="M187" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N187" s="5" t="s">
+      <c r="N187" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O187" s="5" t="s">
+      <c r="O187" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="5"/>
-      <c r="R187" s="5"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
       <c r="U187" s="6" t="s">
         <v>326</v>
       </c>
@@ -11033,7 +11039,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -11183,7 +11189,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -11331,7 +11337,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N196" s="2"/>
